--- a/VerificareFacturi/Data/Config.xlsx
+++ b/VerificareFacturi/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AY33487\OneDrive - Alliance\01 - Implicite\Desktop\VerificareFacturi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B454D05-AC78-4FAA-94CF-2FB3EA617E01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F59CE53-2627-486D-83E4-BD5AA4365E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="315" windowWidth="28515" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="315" windowWidth="28515" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
